--- a/gameservicedemo/src/main/resources/game_configuration_excel/shop.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="商店配置表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -30,7 +30,7 @@
     <t>解忧杂货店</t>
   </si>
   <si>
-    <t>1001,1002,1003,1004,1005,1006,1007,1008</t>
+    <t>1001,1002,1003,1004,1005,1006,1007,1008,1009</t>
   </si>
 </sst>
 </file>
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -52,14 +52,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -67,6 +59,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -75,29 +75,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,24 +89,72 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,9 +166,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,17 +181,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,25 +190,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -205,36 +205,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -247,7 +307,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,133 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,21 +396,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -432,15 +417,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -449,9 +425,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,28 +473,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/shop.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="21000" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="商店配置表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <t>解忧杂货店</t>
   </si>
   <si>
-    <t>1001,1002,1003,1004,1005,1006,1007,1008,1009</t>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26</t>
   </si>
 </sst>
 </file>
@@ -38,10 +38,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,12 +53,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -67,15 +111,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,16 +143,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,52 +155,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,23 +166,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,187 +205,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,26 +423,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -454,6 +434,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,6 +462,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -487,15 +496,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,10 +504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/shop.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8675"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="商店配置表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <t>解忧杂货店</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26</t>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29</t>
   </si>
 </sst>
 </file>
@@ -53,15 +53,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,36 +166,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,46 +174,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,28 +195,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -205,13 +205,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,169 +343,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +396,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -423,6 +434,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -434,15 +469,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,38 +490,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -504,145 +504,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
